--- a/veckoplanering.xlsx
+++ b/veckoplanering.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Prgomet\Documents\ec_utbildning\kursframstallning\ds23\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio Prgomet\Documents\ec_utbildning\kursframstallning\ds23\SQL\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563724E5-A944-47A4-823E-4153100A64B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8685A3-81E7-480C-9343-4337ED32F33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="46">
   <si>
     <t>Mån</t>
   </si>
@@ -96,14 +96,6 @@
   </si>
   <si>
     <t>Ta extra lektion</t>
-  </si>
-  <si>
-    <t>Microsoft SQL Server 2022 Essential Training:
-https://www.linkedin.com/learning/microsoft-sql-server-2022-essential-training</t>
-  </si>
-  <si>
-    <t>Querying Microsoft SQL Server 2022: 
-https://www.linkedin.com/learning/querying-microsoft-sql-server-2022</t>
   </si>
   <si>
     <t>Relational Database Essential Training: 
@@ -116,13 +108,6 @@
     <t xml:space="preserve">Deadline kunskapskontroll kl: 17.00. </t>
   </si>
   <si>
-    <t xml:space="preserve">Kolla på video om SQL i Python, SQLAlchemy:
-</t>
-  </si>
-  <si>
-    <t>Kolla på video om SQL i Python, SQLAlchemy:</t>
-  </si>
-  <si>
     <t>Kolla på följande video: https://youtu.be/Xi0S_q-5t00 
 och ladda ned SQL (se instruktioner i videon vid 14:03 och om du behöver mer detaljer kapitel 1 i morgondagens video "Microsoft SQL Server 2022 Essential Training").</t>
   </si>
@@ -130,25 +115,6 @@
     <t>Arbeta med kunskapskontroll.</t>
   </si>
   <si>
-    <t>Vill du diskutera något kopplat till kunskapskontrollen så kan du gå in i 
-Göteborg klassens lektion mellan kl: 13.15 - 17.00 på följande länk:</t>
-  </si>
-  <si>
-    <t>Vill du diskutera något kopplat till kunskapskontrollen så kan du gå in i Helsingborgs klassens lektion mellan kl: 13.15 - 17.00 på följande länk:</t>
-  </si>
-  <si>
-    <t>Lektion kl: 08.15 - 12.00. 
-- Muntliga presentationer på cirka 10 minuter av koden man skrivit, du presenterar det du gjort och allting behöver inte vara 100% klart (obligatoriskt moment för att bli godkänd i kursen). Om du inte kan göra det på lektionen så spelar du in dig själv och skickar in.</t>
-  </si>
-  <si>
-    <t>Lektion kl: 13.15 - 17.00.
-- Muntliga presentationer på cirka 10 minuter av koden man skrivit, du presenterar det du gjort och allting behöver inte vara 100% klart (obligatoriskt moment för att bli godkänd i kursen). Om du inte kan göra det på lektionen så spelar du in dig själv och skickar in.</t>
-  </si>
-  <si>
-    <t>- Repetition.
-- Läs igenom kunskapskontrollen.</t>
-  </si>
-  <si>
     <t>Lektion kl: 08.15 - 12.00.
 - Genomgång av kunskapskontrollen.</t>
   </si>
@@ -160,14 +126,95 @@
     <t>Röd dag: Annandag jul. Ingen lektion.</t>
   </si>
   <si>
-    <t xml:space="preserve">Lektion kl: 08.15 - 12.00.
-Eftermiddag, börja arbeta med: 
+    <t>Slutför: 
 Microsoft SQL Server 2022 Essential Training:
+https://www.linkedin.com/learning/microsoft-sql-server-2022-essential-training</t>
+  </si>
+  <si>
+    <t>Slutför: 
+Querying Microsoft SQL Server 2022: 
+https://www.linkedin.com/learning/querying-microsoft-sql-server-2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbeta med Microsoft SQL Server 2022 Essential Training:
 https://www.linkedin.com/learning/microsoft-sql-server-2022-essential-training
 Du kan hoppa över följande (du kan se viderona men inget vi kommer arbeta med):
 - Kapitel 1 "Deploy SQL Server 2022 in the Azure cloud".
 - Kapitel 1 "Work with SQL Server in Docker".
 - Kapitel 2 "Connect to Azure and Docker servers". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lektion kl: 08.15 - 12.00.
+EM: 
+Börja arbeta med Microsoft SQL Server 2022 Essential Training:
+https://www.linkedin.com/learning/microsoft-sql-server-2022-essential-training
+Du kan hoppa över följande (du kan se viderona men inget vi kommer arbeta med):
+- Kapitel 1 "Deploy SQL Server 2022 in the Azure cloud".
+- Kapitel 1 "Work with SQL Server in Docker".
+- Kapitel 2 "Connect to Azure and Docker servers". </t>
+  </si>
+  <si>
+    <t>Lektion kl: 08.15 - 12.00.
+EM:
+Arbeta med Microsoft SQL Server 2022 Essential Training:
+https://www.linkedin.com/learning/microsoft-sql-server-2022-essential-training</t>
+  </si>
+  <si>
+    <t>FM: 
+Repetition. 
+Lektion kl: 13.15 - 17.00.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repetition:
+Lektion kl: 13.15 - 17.00. </t>
+  </si>
+  <si>
+    <t>Repetition.</t>
+  </si>
+  <si>
+    <t>Lektion kl: 08.15 - 12.00.
+- Muntliga presentationer på cirka 10 minuter av koden man skrivit, du presenterar det du gjort och allting behöver inte vara 100% klart (obligatoriskt moment för att bli godkänd i kursen). Om du av någon anledning inte kan göra det på lektionen så spelar du in dig själv och skickar in.</t>
+  </si>
+  <si>
+    <t>Lektion kl: 08.15 - 12.00. 
+- Muntliga presentationer på cirka 10 minuter av koden man skrivit, du presenterar det du gjort och allting behöver inte vara 100% klart (obligatoriskt moment för att bli godkänd i kursen). Om du av någon anledning inte kan göra det på lektionen så spelar du in dig själv och skickar in.</t>
+  </si>
+  <si>
+    <t>Lektion kl: 13.15 - 17.00.
+- Muntliga presentationer på cirka 10 minuter av koden man skrivit, du presenterar det du gjort och allting behöver inte vara 100% klart (obligatoriskt moment för att bli godkänd i kursen). Om du av någon anledning inte kan göra det på lektionen så spelar du in dig själv och skickar in.</t>
+  </si>
+  <si>
+    <t>Lektion kl: 13.15 - 17.00. 
+- Muntliga presentationer på cirka 10 minuter av koden man skrivit, du presenterar det du gjort och allting behöver inte vara 100% klart (obligatoriskt moment för att bli godkänd i kursen). Om du av någon anledning inte kan göra det på lektionen så spelar du in dig själv och skickar in.</t>
+  </si>
+  <si>
+    <t>FM: 
+Börja arbeta med Microsoft SQL Server 2022 Essential Training:
+https://www.linkedin.com/learning/microsoft-sql-server-2022-essential-training
+Du kan hoppa över följande (du kan se viderona men inget vi kommer arbeta med):
+- Kapitel 1 "Deploy SQL Server 2022 in the Azure cloud".
+- Kapitel 1 "Work with SQL Server in Docker".
+- Kapitel 2 "Connect to Azure and Docker servers". 
+Lektion kl: 13.15 - 17.00.</t>
+  </si>
+  <si>
+    <t>Lektion kl: 08.15 - 12.00.
+EM:
+Repetition.</t>
+  </si>
+  <si>
+    <t>- Läs igenom och börja arbeta med kunskapskontrollen.</t>
+  </si>
+  <si>
+    <t>Vill du diskutera något kopplat till kunskapskontrollen så kan du gå in i Helsingborg klassens lektion mellan kl: 13.15 - 17.00. Möteslänk mejlas ut.</t>
+  </si>
+  <si>
+    <t>Vill du diskutera något kopplat till kunskapskontrollen så kan du gå in i 
+Göteborg klassens lektion mellan kl: 13.15 - 17.00. Möteslänk mejlas ut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kolla på video om SQLAlchemy där man använder SQL i Python. Länk:
+</t>
   </si>
 </sst>
 </file>
@@ -273,13 +320,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -296,8 +343,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="342900" y="0"/>
-          <a:ext cx="1838325" cy="4838700"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1838325" cy="5791200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -342,6 +389,12 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="sv-SE" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="sv-SE" sz="1100" baseline="0"/>
+            <a:t>- Mark kommer in v.49 Torsdag (Antonio föreläser på Baxter då). </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -613,551 +666,603 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:R37"/>
+  <dimension ref="E2:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="70.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="71.42578125" customWidth="1"/>
-    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="71.42578125" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="71.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="71.42578125" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:15" ht="21" x14ac:dyDescent="0.35">
       <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="5:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="5:15" ht="60" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="5:17" ht="180" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="5:15" ht="165" x14ac:dyDescent="0.25">
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="5:17" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="5:15" ht="90" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="5:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="5:15" ht="60" x14ac:dyDescent="0.25">
       <c r="E8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="5:15" ht="45" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="5:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
       <c r="F11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="5:15" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="5:17" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="I13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="5:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="M15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="5:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:15" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="5:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:18" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.25">
-      <c r="E22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="5:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="5:18" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="J25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
         <v>11</v>
       </c>
-      <c r="O26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
+      <c r="M26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="5:18" x14ac:dyDescent="0.25">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s">
         <v>19</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="2"/>
-      <c r="R27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="5:18" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="5:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="I28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J28" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q28" s="4"/>
-    </row>
-    <row r="29" spans="5:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="M28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="5:16" ht="30" x14ac:dyDescent="0.25">
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" t="s">
         <v>18</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="M29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="5:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="5:18" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="J32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="N32" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="5:17" x14ac:dyDescent="0.25">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E33" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="I33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
         <v>13</v>
       </c>
-      <c r="O33" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P33" s="2" t="s">
+      <c r="M33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="5:17" ht="90" x14ac:dyDescent="0.25">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="5:15" ht="90" x14ac:dyDescent="0.25">
       <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="5:17" ht="90" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="5:15" ht="90" x14ac:dyDescent="0.25">
       <c r="E35" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="5:17" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="5:15" ht="90" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>28</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="P36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="5:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P37" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
